--- a/Full_PHENO_DATA.xlsx
+++ b/Full_PHENO_DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="1180" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1345,7 +1345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1397,13 +1397,27 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1415,11 +1429,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1429,12 +1444,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1767,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1821,1238 +1845,1238 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16">
-      <c r="A3" s="4" t="s">
+      <c r="L2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A3" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16">
-      <c r="A4" s="4" t="s">
+      <c r="L3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A4" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16">
-      <c r="A5" s="4" t="s">
+      <c r="L4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A5" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A6" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A8" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16">
-      <c r="A9" s="4" t="s">
+      <c r="L8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A9" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16">
-      <c r="A10" s="4" t="s">
+      <c r="L9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A10" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16">
-      <c r="A11" s="4" t="s">
+      <c r="L10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A11" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A12" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A14" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16">
-      <c r="A15" s="4" t="s">
+      <c r="L14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A15" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16">
-      <c r="A16" s="4" t="s">
+      <c r="L15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A16" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16">
-      <c r="A17" s="4" t="s">
+      <c r="L16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A17" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A18" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A19" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16">
-      <c r="A21" s="4" t="s">
+      <c r="L20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A21" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16">
-      <c r="A22" s="4" t="s">
+      <c r="L21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="H22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="16">
-      <c r="A23" s="4" t="s">
+      <c r="L22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A23" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A24" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="H24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A25" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A26" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="16">
-      <c r="A27" s="4" t="s">
+      <c r="L26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A27" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="16">
-      <c r="A28" s="4" t="s">
+      <c r="L27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A28" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="H28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="16">
-      <c r="A29" s="4" t="s">
+      <c r="L28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A29" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="H29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="H30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:13" s="16" customFormat="1" ht="16">
+      <c r="A31" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="H31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>400</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3093,7 +3117,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>401</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3134,7 +3158,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>402</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3175,7 +3199,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>403</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3216,7 +3240,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>404</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3257,7 +3281,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>405</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3298,7 +3322,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>406</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3339,7 +3363,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="16">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>407</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3380,7 +3404,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="16">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>408</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3421,7 +3445,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="16">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>409</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3462,7 +3486,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="16">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>410</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3503,7 +3527,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="16">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>411</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3544,7 +3568,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="16">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>412</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3585,7 +3609,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="16">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>413</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3626,7 +3650,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="16">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>414</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3667,7 +3691,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="16">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>415</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3708,7 +3732,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="16">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>416</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3749,7 +3773,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="16">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>417</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3790,7 +3814,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="16">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>418</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3831,7 +3855,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="16">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>419</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3872,7 +3896,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="16">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>420</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3913,7 +3937,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="16">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>421</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3954,7 +3978,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="16">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>422</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3995,7 +4019,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="16">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>423</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4035,249 +4059,249 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:13" s="16" customFormat="1">
+      <c r="A56" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="H56" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="20">
         <v>2500</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L56" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:13" s="16" customFormat="1">
+      <c r="A57" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="H57" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="20">
         <v>2500</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="4" t="s">
+      <c r="L57" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="16" customFormat="1">
+      <c r="A58" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="H58" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="20">
         <v>2500</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="L58" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:13" s="16" customFormat="1">
+      <c r="A59" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="H59" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="20">
         <v>2500</v>
       </c>
-      <c r="L59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="4" t="s">
+      <c r="L59" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="16" customFormat="1">
+      <c r="A60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="H60" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="20">
         <v>2500</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="L60" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:13" s="16" customFormat="1">
+      <c r="A61" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="H61" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="20">
         <v>2500</v>
       </c>
-      <c r="L61" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M61" s="1" t="s">
+      <c r="L61" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M61" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4288,7 +4312,7 @@
       <c r="B62" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4329,10 +4353,10 @@
       <c r="B63" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>296</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4521,7 +4545,7 @@
       <c r="L67" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M67" s="10" t="s">
+      <c r="M67" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4562,7 +4586,7 @@
       <c r="L68" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M68" s="10" t="s">
+      <c r="M68" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4603,7 +4627,7 @@
       <c r="L69" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M69" s="10" t="s">
+      <c r="M69" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4644,7 +4668,7 @@
       <c r="L70" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M70" s="10" t="s">
+      <c r="M70" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4685,7 +4709,7 @@
       <c r="L71" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M71" s="10" t="s">
+      <c r="M71" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4726,7 +4750,7 @@
       <c r="L72" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M72" s="10" t="s">
+      <c r="M72" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4767,7 +4791,7 @@
       <c r="L73" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M73" s="10" t="s">
+      <c r="M73" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4808,7 +4832,7 @@
       <c r="L74" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M74" s="10" t="s">
+      <c r="M74" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4849,7 +4873,7 @@
       <c r="L75" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M75" s="10" t="s">
+      <c r="M75" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4890,7 +4914,7 @@
       <c r="L76" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M76" s="10" t="s">
+      <c r="M76" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4931,7 +4955,7 @@
       <c r="L77" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M77" s="10" t="s">
+      <c r="M77" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4972,7 +4996,7 @@
       <c r="L78" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M78" s="10" t="s">
+      <c r="M78" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5013,7 +5037,7 @@
       <c r="L79" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M79" s="10" t="s">
+      <c r="M79" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5054,7 +5078,7 @@
       <c r="L80" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M80" s="10" t="s">
+      <c r="M80" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5095,7 +5119,7 @@
       <c r="L81" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M81" s="10" t="s">
+      <c r="M81" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5136,7 +5160,7 @@
       <c r="L82" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M82" s="10" t="s">
+      <c r="M82" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5177,7 +5201,7 @@
       <c r="L83" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M83" s="10" t="s">
+      <c r="M83" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5218,7 +5242,7 @@
       <c r="L84" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M84" s="10" t="s">
+      <c r="M84" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5727,7 +5751,7 @@
       <c r="D97" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -6219,7 +6243,7 @@
       <c r="D109" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="10" t="s">
         <v>254</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -6260,7 +6284,7 @@
       <c r="D110" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="10" t="s">
         <v>246</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -7268,7 +7292,7 @@
       <c r="L134" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="M134" s="10" t="s">
+      <c r="M134" s="9" t="s">
         <v>177</v>
       </c>
     </row>
